--- a/excel-cookbook-bijlage.xlsx
+++ b/excel-cookbook-bijlage.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeveldho\_avans_\2324\parametrisch ontwerpen\week 2 - Excel\excel cookbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeveldho\_avans_\2324\parametrisch ontwerpen\week 2 - Excel\avans-excel-cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9A7D0-81D9-44EE-9757-D9ADB17D90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C70043-BFC5-48C3-9C3C-9E36498442D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{600D2D93-26FE-4E2F-AD65-BD0F7A6D81DF}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{600D2D93-26FE-4E2F-AD65-BD0F7A6D81DF}"/>
   </bookViews>
   <sheets>
     <sheet name="celverwijzing" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,11 @@
     <sheet name="indirect" sheetId="6" r:id="rId6"/>
     <sheet name="tekst" sheetId="7" r:id="rId7"/>
     <sheet name="beveiliging" sheetId="12" r:id="rId8"/>
-    <sheet name="matrix" sheetId="8" r:id="rId9"/>
+    <sheet name="voorw. opmaak" sheetId="13" r:id="rId9"/>
+    <sheet name="evalueren" sheetId="14" r:id="rId10"/>
+    <sheet name="is-functies" sheetId="15" r:id="rId11"/>
+    <sheet name="matrix" sheetId="8" r:id="rId12"/>
+    <sheet name="grafiek" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="b">'namen gegevensvalidatie'!$C$2</definedName>
@@ -73,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>leeftijd</t>
   </si>
@@ -454,6 +458,27 @@
   <si>
     <t>kwadraat formule</t>
   </si>
+  <si>
+    <t>cijfer1</t>
+  </si>
+  <si>
+    <t>cijfer2</t>
+  </si>
+  <si>
+    <t>cijfer3</t>
+  </si>
+  <si>
+    <t>gemiddelde eindcijfer</t>
+  </si>
+  <si>
+    <t>+ =</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +488,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +510,13 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -534,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,12 +632,43 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{08085A61-8844-43FE-9F99-E841D4056D03}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,6 +679,904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>grafiek!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>grafiek!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75FE-48BD-8D3F-DDB9EFF5AE2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="605211824"/>
+        <c:axId val="605208584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="605211824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605208584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="605208584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605211824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D902548F-D8AD-8B98-CACE-9BC0400053CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,11 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A62B0D0-F9F6-4203-9217-DF0BD1D6954C}">
+  <sheetPr codeName="Blad1"/>
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1071,8 +2031,397 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED66A289-77C0-4DAF-83CC-150A30B4F409}">
+  <sheetPr codeName="Blad10"/>
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="25">
+        <f>B2+B4</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="25" t="b">
+        <f>IF(B2&gt;2,IF(D5&lt;10,B6,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="25">
+        <f>B4+B6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EFDF6-4C5B-4D46-855F-1ACE94DF8235}">
+  <sheetPr codeName="Blad11"/>
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="D2" s="26" t="str">
+        <f>IF(ISBLANK(B2),"LET OP: in cel B2 moet een waarde worden ingevoerd!","-")</f>
+        <v>LET OP: in cel B2 moet een waarde worden ingevoerd!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6456DF94-0F46-4DBE-8EFE-247AB272FC23}">
+  <sheetPr codeName="Blad12"/>
+  <dimension ref="B2:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="19">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <f t="array" ref="F2:F5">B2:B5+D2:D5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="19">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="19">
+        <v>24</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="19">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="19">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="11">
+        <v>-9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="15">
+        <f t="array" ref="I9:K11">MINVERSE(B9:D11)</f>
+        <v>-0.12500000000000003</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="15">
+        <v>-0.125</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="array" ref="N9:N11">MMULT(I9:K11,F9:F11)</f>
+        <v>-6.75</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="I10" s="15">
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-4.5000000000000018</v>
+      </c>
+      <c r="K10" s="15">
+        <v>2.7500000000000009</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="17">
+        <v>143.50000000000006</v>
+      </c>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="11">
+        <v>56</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="I11" s="15">
+        <v>-0.54166666666666696</v>
+      </c>
+      <c r="J11" s="15">
+        <v>3.7500000000000009</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-2.2083333333333339</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="17">
+        <v>-114.58333333333337</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E72B4-A66F-4763-BDFA-BB85A4082FDE}">
+  <sheetPr codeName="Blad13"/>
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>10</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E57A2-5C3C-43B4-A1BA-A1ACB96B1AF3}">
+  <sheetPr codeName="Blad2"/>
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1158,6 +2507,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0113FB4-B653-4733-86B5-2F1E009F6CEC}">
+  <sheetPr codeName="Blad3"/>
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1352,6 +2702,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58CA7F0-3C37-40D6-915A-65345B037E49}">
+  <sheetPr codeName="Blad4"/>
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,6 +2834,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7412DD-5ACE-4B29-B7DD-7D3AFFD1BD2C}">
+  <sheetPr codeName="Blad5"/>
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1553,6 +2905,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C6B881-4739-47F7-BD70-1CE04BF63100}">
+  <sheetPr codeName="Blad6"/>
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1649,6 +3002,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F56F68-CC9E-44AC-A605-A35636CDF0C2}">
+  <sheetPr codeName="Blad7"/>
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1715,9 +3069,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5F6587-F9E4-4FB8-809B-F5A5BE7E8991}">
+  <sheetPr codeName="Blad8"/>
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1754,211 +3109,64 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6456DF94-0F46-4DBE-8EFE-247AB272FC23}">
-  <dimension ref="B2:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32276B33-9F26-4435-BA5A-DEF0335D82B0}">
+  <sheetPr codeName="Blad9"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="19">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="19">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2">
-        <f t="array" ref="F2:F5">B2:B5+D2:D5</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="19">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19">
-        <v>24</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="19">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="D5" s="19">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="11">
-        <v>-9</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11">
-        <v>4</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="I9" s="15">
-        <f t="array" ref="I9:K11">MINVERSE(B9:D11)</f>
-        <v>-0.12500000000000003</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="15">
-        <v>-0.125</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="array" ref="N9:N11">MMULT(I9:K11,F9:F11)</f>
-        <v>-6.75</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="24">
+        <f>AVERAGE(C2:C4)</f>
         <v>6</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="I10" s="15">
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="J10" s="15">
-        <v>-4.5000000000000018</v>
-      </c>
-      <c r="K10" s="15">
-        <v>2.7500000000000009</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="17">
-        <v>143.50000000000006</v>
-      </c>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11">
-        <v>56</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="I11" s="15">
-        <v>-0.54166666666666696</v>
-      </c>
-      <c r="J11" s="15">
-        <v>3.7500000000000009</v>
-      </c>
-      <c r="K11" s="15">
-        <v>-2.2083333333333339</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="17">
-        <v>-114.58333333333337</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>5.45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>5.45</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel-cookbook-bijlage.xlsx
+++ b/excel-cookbook-bijlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeveldho\_avans_\2324\parametrisch ontwerpen\week 2 - Excel\avans-excel-cookbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeveldho\_avans_\2425\parametrisch ontwerpen\week 3 - Excel\avans-excel-cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C70043-BFC5-48C3-9C3C-9E36498442D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF625D89-9257-4364-A529-902BCBA42821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{600D2D93-26FE-4E2F-AD65-BD0F7A6D81DF}"/>
   </bookViews>
@@ -26,6 +26,9 @@
     <sheet name="is-functies" sheetId="15" r:id="rId11"/>
     <sheet name="matrix" sheetId="8" r:id="rId12"/>
     <sheet name="grafiek" sheetId="16" r:id="rId13"/>
+    <sheet name="let parameter" sheetId="18" r:id="rId14"/>
+    <sheet name="overlopen" sheetId="19" r:id="rId15"/>
+    <sheet name="opmerking" sheetId="20" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="b">'namen gegevensvalidatie'!$C$2</definedName>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>leeftijd</t>
   </si>
@@ -479,6 +482,60 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Constructieve eigenschappen rechthoek</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>(zie opmerking in formule)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>getal</t>
+  </si>
+  <si>
+    <t>dubbele</t>
+  </si>
+  <si>
+    <t>lijst</t>
+  </si>
+  <si>
+    <t>helft</t>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,8 +696,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1592,9 +1658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1632,7 +1698,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1738,7 +1804,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1880,7 +1946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1891,7 +1957,9 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2334,10 +2402,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2416,6 +2484,526 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CF415-9062-4869-8DF9-964BB3159DDA}">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="29">
+        <f>IF(ISNUMBER(C2),2*C2,"&lt;geen getal&gt;")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="29">
+        <f>_xlfn.LET(_xlpm.invoer,C2,  IF(ISNUMBER(_xlpm.invoer),2*_xlpm.invoer,"&lt;geen getal&gt;"))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="19">
+        <v>34</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="28">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="19">
+        <v>12</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="29">
+        <f>_xlfn.LET(_xlpm.b,C8,  _xlpm.h,C9,  _xlpm.b*_xlpm.h)</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2">
+        <f>_xlfn.LET(_xlpm.b,INDEX($H$1:$H$24,MATCH("b",$G$1:$G$24,0)),  _xlpm.h,INDEX($H$1:$H$24,MATCH("h",$G$1:$G$24,0)),  _xlpm.b*_xlpm.h)</f>
+        <v>408</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2">
+        <f>_xlfn.LET(_xlpm.b,INDEX($H$1:$H$24,MATCH("b",$G$1:$G$24,0)),  _xlpm.h,INDEX($H$1:$H$24,MATCH("h",$G$1:$G$24,0)),  1/12*_xlpm.b*_xlpm.h^3)</f>
+        <v>4895.9999999999991</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2">
+        <f>_xlfn.LET(_xlpm.b,INDEX($H$1:$H$24,MATCH("b",$G$1:$G$24,0)),  _xlpm.h,INDEX($H$1:$H$24,MATCH("h",$G$1:$G$24,0)),  1/6*_xlpm.b*_xlpm.h^2)</f>
+        <v>815.99999999999989</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960704D5-871E-4AF4-B98D-8CC107D3ED08}">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22" cm="1">
+        <f t="array" ref="C3:C7">B3:B7*2</f>
+        <v>26</v>
+      </c>
+      <c r="D3" s="22" cm="1">
+        <f t="array" ref="D3:D7">_xlfn.ANCHORARRAY(C3)/2</f>
+        <v>13</v>
+      </c>
+      <c r="F3" s="28">
+        <v>10</v>
+      </c>
+      <c r="G3" s="30">
+        <f ca="1">_xlfn.LET(_xlpm.getallen,_xlfn.ANCHORARRAY(F5),  SUM(_xlpm.getallen)/COUNT(_xlpm.getallen))</f>
+        <v>46.4</v>
+      </c>
+      <c r="H3" s="30" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">SQRT(SUM(POWER(_xlfn.ANCHORARRAY(F5)-G3,2))/(F3-1))</f>
+        <v>25.268337675614696</v>
+      </c>
+      <c r="J3" s="28">
+        <v>20</v>
+      </c>
+      <c r="K3" s="30">
+        <f ca="1">_xlfn.LET(_xlpm.getallen,_xlfn.ANCHORARRAY(J5),  SUM(_xlpm.getallen)/COUNT(_xlpm.getallen))</f>
+        <v>48.9</v>
+      </c>
+      <c r="L3" s="30" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">SQRT(SUM(POWER(_xlfn.ANCHORARRAY(J5)-K3,2))/(J3-1))</f>
+        <v>31.259356494033153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="F5" s="29" cm="1">
+        <f t="array" aca="1" ref="F5:F14" ca="1">ROUND(_xlfn.RANDARRAY(F3,,0,100),0)</f>
+        <v>57</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="J5" s="29" cm="1">
+        <f t="array" aca="1" ref="J5:J24" ca="1">ROUND(_xlfn.RANDARRAY(J3,,0,100),0)</f>
+        <v>17</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27">
+        <f ca="1"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="J6" s="27">
+        <f ca="1"/>
+        <v>33</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="F7" s="27">
+        <f ca="1"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="J7" s="27">
+        <f ca="1"/>
+        <v>43</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="27">
+        <f ca="1"/>
+        <v>42</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="J8" s="27">
+        <f ca="1"/>
+        <v>33</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="27">
+        <f ca="1"/>
+        <v>96</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="J9" s="27">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="27">
+        <f ca="1"/>
+        <v>69</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="J10" s="27">
+        <f ca="1"/>
+        <v>99</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="27">
+        <f ca="1"/>
+        <v>40</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="27">
+        <f ca="1"/>
+        <v>88</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="27">
+        <f ca="1"/>
+        <v>38</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="J12" s="27">
+        <f ca="1"/>
+        <v>41</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="27">
+        <f ca="1"/>
+        <v>64</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="J13" s="27">
+        <f ca="1"/>
+        <v>72</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="27">
+        <f ca="1"/>
+        <v>23</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="27">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <f ca="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <f ca="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <f ca="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <f ca="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <f ca="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <f ca="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <f ca="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <f ca="1"/>
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C914E9A-4AD4-4EF2-9166-47CA518BCFD7}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="28">
+        <v>10</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="29">
+        <f>_xlfn.LET(_xlpm.b,C2,  _xlpm.h,C3,  _xlpm.b*_xlpm.h) + N(" Berekent het oppervlak van een rechthoek gegeven een breedte b en een hoogte h. ")</f>
+        <v>30</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3160,10 +3748,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>5.45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>5.45</formula>
     </cfRule>
   </conditionalFormatting>
